--- a/Next visit formula calculator v5 to email.xlsx
+++ b/Next visit formula calculator v5 to email.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asjan\Documents\1 Lab AU MEL\Stuff for others\Kim Donaghue\Vallimayil Velayutham\New data 2020-07-27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB91CABD-EBB2-43BD-859E-7760CCD1ACCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C22CAC-4152-4977-9F0A-F08FE1F34A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22845" yWindow="555" windowWidth="22815" windowHeight="30450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="2220" windowWidth="24165" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCAS calculator" sheetId="1" r:id="rId1"/>
@@ -1292,13 +1292,7 @@
     <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="16" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1317,6 +1311,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7232,8 +7233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -7242,11 +7243,11 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" hidden="1"/>
-    <col min="6" max="8" width="9.140625" hidden="1"/>
-    <col min="9" max="9" width="9" hidden="1"/>
-    <col min="10" max="11" width="9.140625" hidden="1"/>
-    <col min="12" max="12" width="9" hidden="1"/>
+    <col min="5" max="5" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -7261,14 +7262,14 @@
         <v>92</v>
       </c>
       <c r="B2" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="44"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
@@ -7277,14 +7278,14 @@
         <v>93</v>
       </c>
       <c r="B3" s="17">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="39"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
@@ -7293,7 +7294,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="17">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>195</v>
@@ -7308,8 +7309,8 @@
       <c r="A5" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="33">
-        <v>44359</v>
+      <c r="B5" s="43">
+        <v>44445</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -7355,19 +7356,19 @@
       </c>
       <c r="B8" s="24">
         <f>IF(OR(B2&lt;6,B2&gt;14.9,B3&lt;5,B3&gt;14.9,B4&lt;1,B4&gt;14.9),"???",IF(C14&gt;15,"in many years",C14))</f>
-        <v>11.690500000000007</v>
+        <v>2.7810120000000014</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>IF(I8&lt;1,ROUND(I8*365.25/(365.25/12),1),"")</f>
         <v/>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <f>IFERROR(B5+B8*365.25,"")</f>
-        <v>48628.955125</v>
+        <v>45460.764632999999</v>
       </c>
       <c r="I8" s="24" cm="1">
         <f t="array" ref="I8">_xlfn.IFS(OR(B2&lt;6,B2&gt;15,B3&lt;5,B3&gt;15,B4&lt;1,B4&gt;15),"???",C14&gt;15,"in many years",TRUE,C14)</f>
-        <v>11.690500000000007</v>
+        <v>2.7810120000000014</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -7376,19 +7377,19 @@
       </c>
       <c r="B9" s="24">
         <f>IF(OR(B2&lt;6,B2&gt;14.9,B3&lt;5,B3&gt;14.9,B4&lt;1,B4&gt;14.9),"???",IF(C15&gt;15,"in many years",C15))</f>
-        <v>7.6391999999999953</v>
+        <v>1.1513820000000001</v>
       </c>
       <c r="C9" s="20" t="str">
         <f>IF(I9&lt;1,ROUND(I9*365.25/(365.25/12),1),"")</f>
         <v/>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <f>IFERROR(B5+B9*365.25,"")</f>
-        <v>47149.217799999999</v>
+        <v>44865.542275500004</v>
       </c>
       <c r="I9" s="24" cm="1">
         <f t="array" ref="I9">_xlfn.IFS(OR(B2&lt;6,B2&gt;15,B3&lt;5,B3&gt;15,B4&lt;1,B4&gt;15),"???",C15&gt;15,"in many years",TRUE,C15)</f>
-        <v>7.6391999999999953</v>
+        <v>1.1513820000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -7397,19 +7398,19 @@
       </c>
       <c r="B10" s="24">
         <f>IF(OR(B2&lt;6,B2&gt;14.9,B3&lt;5,B3&gt;14.9,B4&lt;1,B4&gt;14.9),"???",IF(C16&gt;15,"in many years",C16))</f>
-        <v>0.41979999999999995</v>
+        <v>9.4484000000000012E-2</v>
       </c>
       <c r="C10" s="20">
         <f>IF(B10&lt;1,ROUND(B10*365.25/(365.25/12),1),"")</f>
-        <v>5</v>
-      </c>
-      <c r="D10" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="32">
         <f>IFERROR(B5+B10*365.25,"")</f>
-        <v>44512.33195</v>
+        <v>44479.510281000003</v>
       </c>
       <c r="I10" s="26" cm="1">
         <f t="array" ref="I10">_xlfn.IFS(OR(B2&lt;6,B2&gt;15,B3&lt;5,B3&gt;15,B4&lt;1,B4&gt;15),"???",C16&gt;15,"in many years",TRUE,C16)</f>
-        <v>0.41979999999999995</v>
+        <v>9.4484000000000012E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -7419,20 +7420,20 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <f>FORECAST($B$4,INDEX(D23:D32,MATCH($B$4,$C$23:$C$32,1)):INDEX(D23:D32,MATCH($B$4,$C$23:$C$32,1)+1),INDEX($C$23:$C$32,MATCH($B$4,$C$23:$C$32,1)):INDEX($C$23:$C$32,MATCH($B$4,$C$23:$C$32,1)+1))</f>
-        <v>11.690500000000007</v>
+        <v>2.7810120000000014</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="30"/>
@@ -7449,9 +7450,9 @@
       <c r="B15" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <f>FORECAST($B$4,INDEX(E23:E32,MATCH($B$4,$C$23:$C$32,1)):INDEX(E23:E32,MATCH($B$4,$C$23:$C$32,1)+1),INDEX($C$23:$C$32,MATCH($B$4,$C$23:$C$32,1)):INDEX($C$23:$C$32,MATCH($B$4,$C$23:$C$32,1)+1))</f>
-        <v>7.6391999999999953</v>
+        <v>1.1513820000000001</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="30"/>
@@ -7468,9 +7469,9 @@
       <c r="B16" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <f>FORECAST($B$4,INDEX(F23:F32,MATCH($B$4,$C$23:$C$32,1)):INDEX(F23:F32,MATCH($B$4,$C$23:$C$32,1)+1),INDEX($C$23:$C$32,MATCH($B$4,$C$23:$C$32,1)):INDEX($C$23:$C$32,MATCH($B$4,$C$23:$C$32,1)+1))</f>
-        <v>0.41979999999999995</v>
+        <v>9.4484000000000012E-2</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="22"/>
@@ -7494,7 +7495,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="43"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="27"/>
       <c r="M17" s="30"/>
     </row>
@@ -7569,22 +7570,22 @@
       </c>
       <c r="D23" s="18">
         <f>FORECAST($B$3,INDEX(C52:C56,MATCH($B$3,$B$52:$B$56,1)):INDEX(C52:C56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>4.1975999999999996</v>
+        <v>2.3002800000000008</v>
       </c>
       <c r="E23" s="18">
         <f>FORECAST($B$3,INDEX(C81:C85,MATCH($B$3,$B$52:$B$56,1)):INDEX(C81:C85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>1.5511999999999997</v>
+        <v>0.88398800000000011</v>
       </c>
       <c r="F23" s="18">
         <f>FORECAST($B$3,INDEX(C110:C114,MATCH($B$3,$B$52:$B$56,1)):INDEX(C110:C114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>9.0799999999999992E-2</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+        <v>6.1931999999999994E-2</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C24" s="6">
@@ -7592,22 +7593,22 @@
       </c>
       <c r="D24" s="18">
         <f>FORECAST($B$3,INDEX(D52:D56,MATCH($B$3,$B$52:$B$56,1)):INDEX(D52:D56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>6.7169999999999987</v>
+        <v>3.2617440000000015</v>
       </c>
       <c r="E24" s="18">
         <f>FORECAST($B$3,INDEX(D81:D85,MATCH($B$3,$B$52:$B$56,1)):INDEX(D81:D85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>3.1086000000000009</v>
+        <v>1.4187760000000003</v>
       </c>
       <c r="F24" s="18">
         <f>FORECAST($B$3,INDEX(D110:D114,MATCH($B$3,$B$52:$B$56,1)):INDEX(D110:D114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>0.19000000000000006</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+        <v>0.12703600000000004</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C25" s="6">
@@ -7615,22 +7616,22 @@
       </c>
       <c r="D25" s="18">
         <f>FORECAST($B$3,INDEX(E52:E56,MATCH($B$3,$B$52:$B$56,1)):INDEX(E52:E56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>9.1955000000000027</v>
+        <v>4.0903760000000027</v>
       </c>
       <c r="E25" s="18">
         <f>FORECAST($B$3,INDEX(E81:E85,MATCH($B$3,$B$52:$B$56,1)):INDEX(E81:E85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>5.2205999999999975</v>
+        <v>1.9407760000000005</v>
       </c>
       <c r="F25" s="18">
         <f>FORECAST($B$3,INDEX(E110:E114,MATCH($B$3,$B$52:$B$56,1)):INDEX(E110:E114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>0.29899999999999993</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+        <v>0.19533600000000007</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C26" s="6">
@@ -7638,22 +7639,22 @@
       </c>
       <c r="D26" s="18">
         <f>FORECAST($B$3,INDEX(F52:F56,MATCH($B$3,$B$52:$B$56,1)):INDEX(F52:F56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>11.690500000000007</v>
+        <v>4.8658399999999986</v>
       </c>
       <c r="E26" s="18">
         <f>FORECAST($B$3,INDEX(F81:F85,MATCH($B$3,$B$52:$B$56,1)):INDEX(F81:F85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>7.6391999999999953</v>
+        <v>2.4828720000000009</v>
       </c>
       <c r="F26" s="18">
         <f>FORECAST($B$3,INDEX(F110:F114,MATCH($B$3,$B$52:$B$56,1)):INDEX(F110:F114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>0.41979999999999995</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
+        <v>0.26723999999999998</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C27" s="6">
@@ -7661,22 +7662,22 @@
       </c>
       <c r="D27" s="18">
         <f>FORECAST($B$3,INDEX(G52:G56,MATCH($B$3,$B$52:$B$56,1)):INDEX(G52:G56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>14.210200000000007</v>
+        <v>5.6168040000000001</v>
       </c>
       <c r="E27" s="18">
         <f>FORECAST($B$3,INDEX(G81:G85,MATCH($B$3,$B$52:$B$56,1)):INDEX(G81:G85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>10.147199999999998</v>
+        <v>3.0560479999999988</v>
       </c>
       <c r="F27" s="18">
         <f>FORECAST($B$3,INDEX(G110:G114,MATCH($B$3,$B$52:$B$56,1)):INDEX(G110:G114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>0.55489999999999973</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+        <v>0.34306399999999987</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6">
@@ -7684,22 +7685,22 @@
       </c>
       <c r="D28" s="18">
         <f>FORECAST($B$3,INDEX(H52:H56,MATCH($B$3,$B$52:$B$56,1)):INDEX(H52:H56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>16.75630000000001</v>
+        <v>6.3565080000000016</v>
       </c>
       <c r="E28" s="18">
         <f>FORECAST($B$3,INDEX(H81:H85,MATCH($B$3,$B$52:$B$56,1)):INDEX(H81:H85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>12.691699999999997</v>
+        <v>3.6628720000000001</v>
       </c>
       <c r="F28" s="18">
         <f>FORECAST($B$3,INDEX(H110:H114,MATCH($B$3,$B$52:$B$56,1)):INDEX(H110:H114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>0.7077</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+        <v>0.42313999999999996</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
     </row>
     <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="6">
@@ -7707,22 +7708,22 @@
       </c>
       <c r="D29" s="18">
         <f>FORECAST($B$3,INDEX(I52:I56,MATCH($B$3,$B$52:$B$56,1)):INDEX(I52:I56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>20.626800000000003</v>
+        <v>7.4604919999999986</v>
       </c>
       <c r="E29" s="18">
         <f>FORECAST($B$3,INDEX(I81:I85,MATCH($B$3,$B$52:$B$56,1)):INDEX(I81:I85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>16.561900000000009</v>
+        <v>4.6316079999999999</v>
       </c>
       <c r="F29" s="18">
         <f>FORECAST($B$3,INDEX(I110:I114,MATCH($B$3,$B$52:$B$56,1)):INDEX(I110:I114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>0.98130000000000006</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+        <v>0.55243599999999993</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
     </row>
     <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6">
@@ -7730,22 +7731,22 @@
       </c>
       <c r="D30" s="18">
         <f>FORECAST($B$3,INDEX(J52:J56,MATCH($B$3,$B$52:$B$56,1)):INDEX(J52:J56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>27.219200000000001</v>
+        <v>9.3137760000000043</v>
       </c>
       <c r="E30" s="18">
         <f>FORECAST($B$3,INDEX(J81:J85,MATCH($B$3,$B$52:$B$56,1)):INDEX(J81:J85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>23.154300000000006</v>
+        <v>6.3710560000000012</v>
       </c>
       <c r="F30" s="18">
         <f>FORECAST($B$3,INDEX(J110:J114,MATCH($B$3,$B$52:$B$56,1)):INDEX(J110:J114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>1.6335999999999995</v>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+        <v>0.79677199999999959</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
     </row>
     <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="6">
@@ -7753,22 +7754,22 @@
       </c>
       <c r="D31" s="18">
         <f>FORECAST($B$3,INDEX(K52:K56,MATCH($B$3,$B$52:$B$56,1)):INDEX(K52:K56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>33.997299999999996</v>
+        <v>11.20552</v>
       </c>
       <c r="E31" s="18">
         <f>FORECAST($B$3,INDEX(K81:K85,MATCH($B$3,$B$52:$B$56,1)):INDEX(K81:K85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>29.932400000000001</v>
+        <v>8.2200720000000054</v>
       </c>
       <c r="F31" s="18">
         <f>FORECAST($B$3,INDEX(K110:K114,MATCH($B$3,$B$52:$B$56,1)):INDEX(K110:K114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>2.8953999999999986</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+        <v>1.0876880000000004</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
     </row>
     <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C32" s="6">
@@ -7776,22 +7777,22 @@
       </c>
       <c r="D32" s="18">
         <f>FORECAST($B$3,INDEX(L52:L56,MATCH($B$3,$B$52:$B$56,1)):INDEX(L52:L56,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>40.972000000000008</v>
+        <v>13.147359999999999</v>
       </c>
       <c r="E32" s="18">
         <f>FORECAST($B$3,INDEX(L81:L85,MATCH($B$3,$B$52:$B$56,1)):INDEX(L81:L85,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>36.907100000000014</v>
+        <v>10.147075999999998</v>
       </c>
       <c r="F32" s="18">
         <f>FORECAST($B$3,INDEX(L110:L114,MATCH($B$3,$B$52:$B$56,1)):INDEX(L110:L114,MATCH($B$3,$B$52:$B$56,1)+1),INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)):INDEX($B$52:$B$56,MATCH($B$3,$B$52:$B$56,1)+1))</f>
-        <v>6.7671000000000072</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
+        <v>1.4428119999999998</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
     </row>
     <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="H33" s="5"/>
@@ -9774,242 +9775,242 @@
       <c r="L51" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="W51" s="36"/>
-      <c r="AC51" s="37"/>
-      <c r="AD51" s="38"/>
-      <c r="AE51" s="37"/>
-      <c r="AF51" s="38"/>
-      <c r="AG51" s="37"/>
+      <c r="W51" s="34"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="35"/>
     </row>
     <row r="52" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>5</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="40">
         <f>FORECAST($B$2,INDEX(C37:C46,MATCH($B$2,$B$37:$B$46,1)):INDEX(C37:C46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>4.1975999999999996</v>
-      </c>
-      <c r="D52" s="42">
+        <v>2.8555000000000001</v>
+      </c>
+      <c r="D52" s="40">
         <f>FORECAST($B$2,INDEX(H37:H46,MATCH($B$2,$B$37:$B$46,1)):INDEX(H37:H46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.7169999999999987</v>
-      </c>
-      <c r="E52" s="42">
+        <v>4.2018000000000004</v>
+      </c>
+      <c r="E52" s="40">
         <f>FORECAST($B$2,INDEX(M37:M46,MATCH($B$2,$B$37:$B$46,1)):INDEX(M37:M46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>9.1955000000000027</v>
-      </c>
-      <c r="F52" s="42">
+        <v>5.4240999999999993</v>
+      </c>
+      <c r="F52" s="40">
         <f>FORECAST($B$2,INDEX(R37:R46,MATCH($B$2,$B$37:$B$46,1)):INDEX(R37:R46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>11.690500000000007</v>
-      </c>
-      <c r="G52" s="42">
+        <v>6.6097000000000001</v>
+      </c>
+      <c r="G52" s="40">
         <f>FORECAST($B$2,INDEX(W37:W46,MATCH($B$2,$B$37:$B$46,1)):INDEX(W37:W46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>14.210200000000007</v>
-      </c>
-      <c r="H52" s="42">
+        <v>7.7868999999999957</v>
+      </c>
+      <c r="H52" s="40">
         <f>FORECAST($B$2,INDEX(AB37:AB46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AB37:AB46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>16.75630000000001</v>
-      </c>
-      <c r="I52" s="42">
+        <v>8.9671000000000092</v>
+      </c>
+      <c r="I52" s="40">
         <f>FORECAST($B$2,INDEX(AG37:AG46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AG37:AG46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>20.626800000000003</v>
-      </c>
-      <c r="J52" s="42">
+        <v>10.753999999999998</v>
+      </c>
+      <c r="J52" s="40">
         <f>FORECAST($B$2,INDEX(AL37:AL46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AL37:AL46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>27.219200000000001</v>
-      </c>
-      <c r="K52" s="42">
+        <v>13.791600000000003</v>
+      </c>
+      <c r="K52" s="40">
         <f>FORECAST($B$2,INDEX(AQ37:AQ46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AQ37:AQ46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>33.997299999999996</v>
-      </c>
-      <c r="L52" s="42">
+        <v>16.913200000000018</v>
+      </c>
+      <c r="L52" s="40">
         <f>FORECAST($B$2,INDEX(AV37:AV46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AV37:AV46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>40.972000000000008</v>
-      </c>
-      <c r="X52" s="39"/>
+        <v>20.125100000000003</v>
+      </c>
+      <c r="X52" s="37"/>
     </row>
     <row r="53" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
         <v>7.5</v>
       </c>
-      <c r="C53" s="42">
+      <c r="C53" s="40">
         <f>FORECAST($B$2,INDEX(D37:D46,MATCH($B$2,$B$37:$B$46,1)):INDEX(D37:D46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.0943000000000005</v>
-      </c>
-      <c r="D53" s="42">
+        <v>2.2520000000000007</v>
+      </c>
+      <c r="D53" s="40">
         <f>FORECAST($B$2,INDEX(I37:I46,MATCH($B$2,$B$37:$B$46,1)):INDEX(I37:I46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>4.6138999999999992</v>
-      </c>
-      <c r="E53" s="42">
+        <v>3.1800000000000015</v>
+      </c>
+      <c r="E53" s="40">
         <f>FORECAST($B$2,INDEX(N37:N46,MATCH($B$2,$B$37:$B$46,1)):INDEX(N37:N46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.0195000000000007</v>
-      </c>
-      <c r="F53" s="42">
+        <v>3.9744000000000028</v>
+      </c>
+      <c r="F53" s="40">
         <f>FORECAST($B$2,INDEX(S37:S46,MATCH($B$2,$B$37:$B$46,1)):INDEX(S37:S46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>7.3983999999999988</v>
-      </c>
-      <c r="G53" s="42">
+        <v>4.7141999999999982</v>
+      </c>
+      <c r="G53" s="40">
         <f>FORECAST($B$2,INDEX(X37:X46,MATCH($B$2,$B$37:$B$46,1)):INDEX(X37:X46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>8.776600000000002</v>
-      </c>
-      <c r="H53" s="42">
+        <v>5.4281000000000006</v>
+      </c>
+      <c r="H53" s="40">
         <f>FORECAST($B$2,INDEX(AC37:AC46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AC37:AC46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>10.163699999999999</v>
-      </c>
-      <c r="I53" s="42">
+        <v>6.1295000000000002</v>
+      </c>
+      <c r="I53" s="40">
         <f>FORECAST($B$2,INDEX(AH37:AH46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AH37:AH46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>12.268600000000006</v>
-      </c>
-      <c r="J53" s="42">
+        <v>7.1740999999999993</v>
+      </c>
+      <c r="J53" s="40">
         <f>FORECAST($B$2,INDEX(AM37:AM46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AM37:AM46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>15.851400000000005</v>
-      </c>
-      <c r="K53" s="42">
+        <v>8.9244000000000057</v>
+      </c>
+      <c r="K53" s="40">
         <f>FORECAST($B$2,INDEX(AR37:AR46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AR37:AR46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>19.534599999999998</v>
-      </c>
-      <c r="L53" s="42">
+        <v>10.709199999999996</v>
+      </c>
+      <c r="L53" s="40">
         <f>FORECAST($B$2,INDEX(AW37:AW46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AW37:AW46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>23.324700000000007</v>
-      </c>
-      <c r="X53" s="39"/>
+        <v>12.540599999999998</v>
+      </c>
+      <c r="X53" s="37"/>
     </row>
     <row r="54" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
         <v>10</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="40">
         <f>FORECAST($B$2,INDEX(E37:E46,MATCH($B$2,$B$37:$B$46,1)):INDEX(E37:E46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.426099999999999</v>
-      </c>
-      <c r="D54" s="42">
+        <v>1.8397000000000001</v>
+      </c>
+      <c r="D54" s="40">
         <f>FORECAST($B$2,INDEX(J37:J46,MATCH($B$2,$B$37:$B$46,1)):INDEX(J37:J46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.4562999999999988</v>
-      </c>
-      <c r="E54" s="42">
+        <v>2.5314999999999994</v>
+      </c>
+      <c r="E54" s="40">
         <f>FORECAST($B$2,INDEX(O37:O46,MATCH($B$2,$B$37:$B$46,1)):INDEX(O37:O46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>4.3510999999999989</v>
-      </c>
-      <c r="F54" s="42">
+        <v>3.0992999999999995</v>
+      </c>
+      <c r="F54" s="40">
         <f>FORECAST($B$2,INDEX(T37:T46,MATCH($B$2,$B$37:$B$46,1)):INDEX(T37:T46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>5.1933999999999969</v>
-      </c>
-      <c r="G54" s="42">
+        <v>3.6112000000000002</v>
+      </c>
+      <c r="G54" s="40">
         <f>FORECAST($B$2,INDEX(Y37:Y46,MATCH($B$2,$B$37:$B$46,1)):INDEX(Y37:Y46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.0129000000000019</v>
-      </c>
-      <c r="H54" s="42">
+        <v>4.0922000000000001</v>
+      </c>
+      <c r="H54" s="40">
         <f>FORECAST($B$2,INDEX(AD37:AD46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AD37:AD46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.8232999999999997</v>
-      </c>
-      <c r="I54" s="42">
+        <v>4.5546000000000006</v>
+      </c>
+      <c r="I54" s="40">
         <f>FORECAST($B$2,INDEX(AI37:AI46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AI37:AI46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>8.0372000000000021</v>
-      </c>
-      <c r="J54" s="42">
+        <v>5.2281999999999975</v>
+      </c>
+      <c r="J54" s="40">
         <f>FORECAST($B$2,INDEX(AN37:AN46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AN37:AN46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>10.083100000000002</v>
-      </c>
-      <c r="K54" s="42">
+        <v>6.3279999999999994</v>
+      </c>
+      <c r="K54" s="40">
         <f>FORECAST($B$2,INDEX(AS37:AS46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AS37:AS46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>12.177099999999996</v>
-      </c>
-      <c r="L54" s="42">
+        <v>7.4258999999999986</v>
+      </c>
+      <c r="L54" s="40">
         <f>FORECAST($B$2,INDEX(AX37:AX46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AX37:AX46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>14.329099999999997</v>
-      </c>
-      <c r="X54" s="39"/>
+        <v>8.5382999999999996</v>
+      </c>
+      <c r="X54" s="37"/>
     </row>
     <row r="55" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <v>12.5</v>
       </c>
-      <c r="C55" s="42">
+      <c r="C55" s="40">
         <f>FORECAST($B$2,INDEX(F37:F46,MATCH($B$2,$B$37:$B$46,1)):INDEX(F37:F46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.9747000000000003</v>
-      </c>
-      <c r="D55" s="42">
+        <v>1.5363000000000002</v>
+      </c>
+      <c r="D55" s="40">
         <f>FORECAST($B$2,INDEX(K37:K46,MATCH($B$2,$B$37:$B$46,1)):INDEX(K37:K46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.735100000000001</v>
-      </c>
-      <c r="E55" s="42">
+        <v>2.0794999999999995</v>
+      </c>
+      <c r="E55" s="40">
         <f>FORECAST($B$2,INDEX(P37:P46,MATCH($B$2,$B$37:$B$46,1)):INDEX(P37:P46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.3660000000000014</v>
-      </c>
-      <c r="F55" s="42">
+        <v>2.512999999999999</v>
+      </c>
+      <c r="F55" s="40">
         <f>FORECAST($B$2,INDEX(U37:U46,MATCH($B$2,$B$37:$B$46,1)):INDEX(U37:U46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.9396000000000022</v>
-      </c>
-      <c r="G55" s="42">
+        <v>2.8950000000000005</v>
+      </c>
+      <c r="G55" s="40">
         <f>FORECAST($B$2,INDEX(Z37:Z46,MATCH($B$2,$B$37:$B$46,1)):INDEX(Z37:Z46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>4.4824000000000002</v>
-      </c>
-      <c r="H55" s="42">
+        <v>3.2471999999999994</v>
+      </c>
+      <c r="H55" s="40">
         <f>FORECAST($B$2,INDEX(AE37:AE46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AE37:AE46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>5.0073000000000008</v>
-      </c>
-      <c r="I55" s="42">
+        <v>3.5801000000000016</v>
+      </c>
+      <c r="I55" s="40">
         <f>FORECAST($B$2,INDEX(AJ37:AJ46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AJ37:AJ46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>5.7766000000000002</v>
-      </c>
-      <c r="J55" s="42">
+        <v>4.0563000000000002</v>
+      </c>
+      <c r="J55" s="40">
         <f>FORECAST($B$2,INDEX(AO37:AO46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AO37:AO46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>7.0426000000000037</v>
-      </c>
-      <c r="K55" s="42">
+        <v>4.8149999999999995</v>
+      </c>
+      <c r="K55" s="40">
         <f>FORECAST($B$2,INDEX(AT37:AT46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AT37:AT46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>8.3152000000000044</v>
-      </c>
-      <c r="L55" s="42">
+        <v>5.5541000000000018</v>
+      </c>
+      <c r="L55" s="40">
         <f>FORECAST($B$2,INDEX(AY37:AY46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AY37:AY46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>9.6105999999999945</v>
-      </c>
-      <c r="X55" s="39"/>
+        <v>6.289200000000001</v>
+      </c>
+      <c r="X55" s="37"/>
     </row>
     <row r="56" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <v>15</v>
       </c>
-      <c r="C56" s="42">
+      <c r="C56" s="40">
         <f>FORECAST($B$2,INDEX(G37:G46,MATCH($B$2,$B$37:$B$46,1)):INDEX(G37:G46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.6448</v>
-      </c>
-      <c r="D56" s="42">
+        <v>1.3011999999999997</v>
+      </c>
+      <c r="D56" s="40">
         <f>FORECAST($B$2,INDEX(L37:L46,MATCH($B$2,$B$37:$B$46,1)):INDEX(L37:L46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.2379999999999995</v>
-      </c>
-      <c r="E56" s="42">
+        <v>1.7424999999999997</v>
+      </c>
+      <c r="E56" s="40">
         <f>FORECAST($B$2,INDEX(Q37:Q46,MATCH($B$2,$B$37:$B$46,1)):INDEX(Q37:Q46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.7153000000000009</v>
-      </c>
-      <c r="F56" s="42">
+        <v>2.0878999999999994</v>
+      </c>
+      <c r="F56" s="40">
         <f>FORECAST($B$2,INDEX(V37:V46,MATCH($B$2,$B$37:$B$46,1)):INDEX(V37:V46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.1389000000000005</v>
-      </c>
-      <c r="G56" s="42">
+        <v>2.3878000000000004</v>
+      </c>
+      <c r="G56" s="40">
         <f>FORECAST($B$2,INDEX(AA37:AA46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AA37:AA46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.5315000000000003</v>
-      </c>
-      <c r="H56" s="42">
+        <v>2.6606999999999994</v>
+      </c>
+      <c r="H56" s="40">
         <f>FORECAST($B$2,INDEX(AF37:AF46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AF37:AF46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.9045000000000005</v>
-      </c>
-      <c r="I56" s="42">
+        <v>2.9157000000000002</v>
+      </c>
+      <c r="I56" s="40">
         <f>FORECAST($B$2,INDEX(AK37:AK46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AK37:AK46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>4.4408999999999992</v>
-      </c>
-      <c r="J56" s="42">
+        <v>3.2757000000000005</v>
+      </c>
+      <c r="J56" s="40">
         <f>FORECAST($B$2,INDEX(AP37:AP46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AP37:AP46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>5.3018000000000018</v>
-      </c>
-      <c r="K56" s="42">
+        <v>3.8389999999999986</v>
+      </c>
+      <c r="K56" s="40">
         <f>FORECAST($B$2,INDEX(AU37:AU46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AU37:AU46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.1464999999999996</v>
-      </c>
-      <c r="L56" s="42">
+        <v>4.3769000000000027</v>
+      </c>
+      <c r="L56" s="40">
         <f>FORECAST($B$2,INDEX(AZ37:AZ46,MATCH($B$2,$B$37:$B$46,1)):INDEX(AZ37:AZ46,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.991500000000002</v>
-      </c>
-      <c r="X56" s="39"/>
+        <v>4.903100000000002</v>
+      </c>
+      <c r="X56" s="37"/>
     </row>
     <row r="57" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C57" s="27"/>
@@ -10017,23 +10018,23 @@
     </row>
     <row r="58" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C58" s="27"/>
-      <c r="X58" s="35"/>
+      <c r="X58" s="33"/>
     </row>
     <row r="59" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C59" s="27"/>
-      <c r="X59" s="35"/>
+      <c r="X59" s="33"/>
     </row>
     <row r="60" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C60" s="27"/>
-      <c r="X60" s="35"/>
+      <c r="X60" s="33"/>
     </row>
     <row r="61" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C61" s="27"/>
-      <c r="X61" s="35"/>
+      <c r="X61" s="33"/>
     </row>
     <row r="62" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C62" s="27"/>
-      <c r="X62" s="35"/>
+      <c r="X62" s="33"/>
     </row>
     <row r="63" spans="2:52" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63"/>
@@ -12133,17 +12134,17 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5"/>
-      <c r="W80" s="36"/>
+      <c r="W80" s="34"/>
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
-      <c r="AC80" s="37"/>
-      <c r="AD80" s="38"/>
-      <c r="AE80" s="37"/>
-      <c r="AF80" s="38"/>
-      <c r="AG80" s="37"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="36"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="36"/>
+      <c r="AG80" s="35"/>
       <c r="AH80" s="5"/>
       <c r="BC80" s="5"/>
       <c r="BD80" s="5"/>
@@ -12156,45 +12157,45 @@
       <c r="B81" s="8">
         <v>5</v>
       </c>
-      <c r="C81" s="42">
+      <c r="C81" s="40">
         <f>FORECAST($B$2,INDEX(C66:C75,MATCH($B$2,$B$37:$B$46,1)):INDEX(C66:C75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.5511999999999997</v>
-      </c>
-      <c r="D81" s="42">
+        <v>1.0897000000000001</v>
+      </c>
+      <c r="D81" s="40">
         <f>FORECAST($B$2,INDEX(H66:H75,MATCH($B$2,$B$37:$B$46,1)):INDEX(H66:H75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.1086000000000009</v>
-      </c>
-      <c r="E81" s="42">
+        <v>1.8485999999999994</v>
+      </c>
+      <c r="E81" s="40">
         <f>FORECAST($B$2,INDEX(M66:M75,MATCH($B$2,$B$37:$B$46,1)):INDEX(M66:M75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>5.2205999999999975</v>
-      </c>
-      <c r="F81" s="42">
+        <v>2.6696000000000009</v>
+      </c>
+      <c r="F81" s="40">
         <f>FORECAST($B$2,INDEX(R66:R75,MATCH($B$2,$B$37:$B$46,1)):INDEX(R66:R75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>7.6391999999999953</v>
-      </c>
-      <c r="G81" s="42">
+        <v>3.5922999999999981</v>
+      </c>
+      <c r="G81" s="40">
         <f>FORECAST($B$2,INDEX(W66:W75,MATCH($B$2,$B$37:$B$46,1)):INDEX(W66:W75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>10.147199999999998</v>
-      </c>
-      <c r="H81" s="42">
+        <v>4.6136999999999979</v>
+      </c>
+      <c r="H81" s="40">
         <f>FORECAST($B$2,INDEX(AB66:AB75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AB66:AB75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>12.691699999999997</v>
-      </c>
-      <c r="I81" s="42">
+        <v>5.7107000000000028</v>
+      </c>
+      <c r="I81" s="40">
         <f>FORECAST($B$2,INDEX(AG66:AG75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AG66:AG75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>16.561900000000009</v>
-      </c>
-      <c r="J81" s="42">
+        <v>7.4446000000000012</v>
+      </c>
+      <c r="J81" s="40">
         <f>FORECAST($B$2,INDEX(AL66:AL75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AL66:AL75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>23.154300000000006</v>
-      </c>
-      <c r="K81" s="42">
+        <v>10.461100000000009</v>
+      </c>
+      <c r="K81" s="40">
         <f>FORECAST($B$2,INDEX(AQ66:AQ75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AQ66:AQ75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>29.932400000000001</v>
-      </c>
-      <c r="L81" s="42">
+        <v>13.579900000000009</v>
+      </c>
+      <c r="L81" s="40">
         <f>FORECAST($B$2,INDEX(AV66:AV75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AV66:AV75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>36.907100000000014</v>
+        <v>16.791499999999999</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -12229,45 +12230,45 @@
       <c r="B82" s="8">
         <v>7.5</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="40">
         <f>FORECAST($B$2,INDEX(D66:D75,MATCH($B$2,$B$37:$B$46,1)):INDEX(D66:D75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.1520000000000001</v>
-      </c>
-      <c r="D82" s="42">
+        <v>0.86610000000000009</v>
+      </c>
+      <c r="D82" s="40">
         <f>FORECAST($B$2,INDEX(I66:I75,MATCH($B$2,$B$37:$B$46,1)):INDEX(I66:I75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.9890999999999996</v>
-      </c>
-      <c r="E82" s="42">
+        <v>1.3814000000000002</v>
+      </c>
+      <c r="E82" s="40">
         <f>FORECAST($B$2,INDEX(N66:N75,MATCH($B$2,$B$37:$B$46,1)):INDEX(N66:N75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.9334000000000007</v>
-      </c>
-      <c r="F82" s="42">
+        <v>1.8774000000000006</v>
+      </c>
+      <c r="F82" s="40">
         <f>FORECAST($B$2,INDEX(S66:S75,MATCH($B$2,$B$37:$B$46,1)):INDEX(S66:S75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>4.0306999999999995</v>
-      </c>
-      <c r="G82" s="42">
+        <v>2.386400000000001</v>
+      </c>
+      <c r="G82" s="40">
         <f>FORECAST($B$2,INDEX(X66:X75,MATCH($B$2,$B$37:$B$46,1)):INDEX(X66:X75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>5.2635000000000005</v>
-      </c>
-      <c r="H82" s="42">
+        <v>2.9205999999999985</v>
+      </c>
+      <c r="H82" s="40">
         <f>FORECAST($B$2,INDEX(AC66:AC75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AC66:AC75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.5855999999999995</v>
-      </c>
-      <c r="I82" s="42">
+        <v>3.4847999999999999</v>
+      </c>
+      <c r="I82" s="40">
         <f>FORECAST($B$2,INDEX(AH66:AH75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AH66:AH75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>8.6576000000000022</v>
-      </c>
-      <c r="J82" s="42">
+        <v>4.3870000000000005</v>
+      </c>
+      <c r="J82" s="40">
         <f>FORECAST($B$2,INDEX(AM66:AM75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AM66:AM75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>12.231099999999998</v>
-      </c>
-      <c r="K82" s="42">
+        <v>6.0153999999999996</v>
+      </c>
+      <c r="K82" s="40">
         <f>FORECAST($B$2,INDEX(AR66:AR75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AR66:AR75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>15.913600000000002</v>
-      </c>
-      <c r="L82" s="42">
+        <v>7.7540000000000049</v>
+      </c>
+      <c r="L82" s="40">
         <f>FORECAST($B$2,INDEX(AW66:AW75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AW66:AW75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>19.703600000000009</v>
+        <v>9.5692999999999984</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -12296,45 +12297,45 @@
       <c r="B83" s="8">
         <v>10</v>
       </c>
-      <c r="C83" s="42">
+      <c r="C83" s="40">
         <f>FORECAST($B$2,INDEX(E66:E75,MATCH($B$2,$B$37:$B$46,1)):INDEX(E66:E75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.91270000000000007</v>
-      </c>
-      <c r="D83" s="42">
+        <v>0.71089999999999987</v>
+      </c>
+      <c r="D83" s="40">
         <f>FORECAST($B$2,INDEX(J66:J75,MATCH($B$2,$B$37:$B$46,1)):INDEX(J66:J75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.4712999999999994</v>
-      </c>
-      <c r="E83" s="42">
+        <v>1.0964</v>
+      </c>
+      <c r="E83" s="40">
         <f>FORECAST($B$2,INDEX(O66:O75,MATCH($B$2,$B$37:$B$46,1)):INDEX(O66:O75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.0217999999999998</v>
-      </c>
-      <c r="F83" s="42">
+        <v>1.4438999999999997</v>
+      </c>
+      <c r="F83" s="40">
         <f>FORECAST($B$2,INDEX(T66:T75,MATCH($B$2,$B$37:$B$46,1)):INDEX(T66:T75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.5993000000000004</v>
-      </c>
-      <c r="G83" s="42">
+        <v>1.7803000000000004</v>
+      </c>
+      <c r="G83" s="40">
         <f>FORECAST($B$2,INDEX(Y66:Y75,MATCH($B$2,$B$37:$B$46,1)):INDEX(Y66:Y75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.2175999999999991</v>
-      </c>
-      <c r="H83" s="42">
+        <v>2.1158999999999999</v>
+      </c>
+      <c r="H83" s="40">
         <f>FORECAST($B$2,INDEX(AD66:AD75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AD66:AD75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.8804999999999996</v>
-      </c>
-      <c r="I83" s="42">
+        <v>2.4561000000000011</v>
+      </c>
+      <c r="I83" s="40">
         <f>FORECAST($B$2,INDEX(AI66:AI75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AI66:AI75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>4.952300000000001</v>
-      </c>
-      <c r="J83" s="42">
+        <v>2.9812000000000012</v>
+      </c>
+      <c r="J83" s="40">
         <f>FORECAST($B$2,INDEX(AN66:AN75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AN66:AN75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.8931999999999967</v>
-      </c>
-      <c r="K83" s="42">
+        <v>3.9059999999999988</v>
+      </c>
+      <c r="K83" s="40">
         <f>FORECAST($B$2,INDEX(AS66:AS75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AS66:AS75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>8.9551999999999978</v>
-      </c>
-      <c r="L83" s="42">
+        <v>4.8952999999999989</v>
+      </c>
+      <c r="L83" s="40">
         <f>FORECAST($B$2,INDEX(AX66:AX75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AX66:AX75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>11.098399999999998</v>
+        <v>5.9439000000000028</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -12363,45 +12364,45 @@
       <c r="B84" s="8">
         <v>12.5</v>
       </c>
-      <c r="C84" s="42">
+      <c r="C84" s="40">
         <f>FORECAST($B$2,INDEX(F66:F75,MATCH($B$2,$B$37:$B$46,1)):INDEX(F66:F75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.74770000000000003</v>
-      </c>
-      <c r="D84" s="42">
+        <v>0.59470000000000023</v>
+      </c>
+      <c r="D84" s="40">
         <f>FORECAST($B$2,INDEX(K66:K75,MATCH($B$2,$B$37:$B$46,1)):INDEX(K66:K75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="E84" s="42">
+        <v>0.89900000000000024</v>
+      </c>
+      <c r="E84" s="40">
         <f>FORECAST($B$2,INDEX(P66:P75,MATCH($B$2,$B$37:$B$46,1)):INDEX(P66:P75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.5412999999999997</v>
-      </c>
-      <c r="F84" s="42">
+        <v>1.1629</v>
+      </c>
+      <c r="F84" s="40">
         <f>FORECAST($B$2,INDEX(U66:U75,MATCH($B$2,$B$37:$B$46,1)):INDEX(U66:U75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.9137000000000004</v>
-      </c>
-      <c r="G84" s="42">
+        <v>1.4097000000000004</v>
+      </c>
+      <c r="G84" s="40">
         <f>FORECAST($B$2,INDEX(Z66:Z75,MATCH($B$2,$B$37:$B$46,1)):INDEX(Z66:Z75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.2903000000000002</v>
-      </c>
-      <c r="H84" s="42">
+        <v>1.6482999999999994</v>
+      </c>
+      <c r="H84" s="40">
         <f>FORECAST($B$2,INDEX(AE66:AE75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AE66:AE75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.6767000000000012</v>
-      </c>
-      <c r="I84" s="42">
+        <v>1.8834999999999997</v>
+      </c>
+      <c r="I84" s="40">
         <f>FORECAST($B$2,INDEX(AJ66:AJ75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AJ66:AJ75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.2810000000000006</v>
-      </c>
-      <c r="J84" s="42">
+        <v>2.2354000000000003</v>
+      </c>
+      <c r="J84" s="40">
         <f>FORECAST($B$2,INDEX(AO66:AO75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AO66:AO75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>4.3613</v>
-      </c>
-      <c r="K84" s="42">
+        <v>2.8312000000000008</v>
+      </c>
+      <c r="K84" s="40">
         <f>FORECAST($B$2,INDEX(AT66:AT75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AT66:AT75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>5.5281999999999982</v>
-      </c>
-      <c r="L84" s="42">
+        <v>3.4493000000000009</v>
+      </c>
+      <c r="L84" s="40">
         <f>FORECAST($B$2,INDEX(AY66:AY75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AY66:AY75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.7674999999999983</v>
+        <v>4.0949999999999989</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -12430,45 +12431,45 @@
       <c r="B85" s="8">
         <v>15</v>
       </c>
-      <c r="C85" s="42">
+      <c r="C85" s="40">
         <f>FORECAST($B$2,INDEX(G66:G75,MATCH($B$2,$B$37:$B$46,1)):INDEX(G66:G75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.62450000000000028</v>
-      </c>
-      <c r="D85" s="42">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="D85" s="40">
         <f>FORECAST($B$2,INDEX(L66:L75,MATCH($B$2,$B$37:$B$46,1)):INDEX(L66:L75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.94969999999999999</v>
-      </c>
-      <c r="E85" s="42">
+        <v>0.75119999999999987</v>
+      </c>
+      <c r="E85" s="40">
         <f>FORECAST($B$2,INDEX(Q66:Q75,MATCH($B$2,$B$37:$B$46,1)):INDEX(Q66:Q75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.2350000000000003</v>
-      </c>
-      <c r="F85" s="42">
+        <v>0.96119999999999983</v>
+      </c>
+      <c r="F85" s="40">
         <f>FORECAST($B$2,INDEX(V66:V75,MATCH($B$2,$B$37:$B$46,1)):INDEX(V66:V75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.5045999999999995</v>
-      </c>
-      <c r="G85" s="42">
+        <v>1.1533999999999995</v>
+      </c>
+      <c r="G85" s="40">
         <f>FORECAST($B$2,INDEX(AA66:AA75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AA66:AA75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.7679</v>
-      </c>
-      <c r="H85" s="42">
+        <v>1.3357999999999999</v>
+      </c>
+      <c r="H85" s="40">
         <f>FORECAST($B$2,INDEX(AF66:AF75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AF66:AF75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.0295000000000005</v>
-      </c>
-      <c r="I85" s="42">
+        <v>1.5122999999999998</v>
+      </c>
+      <c r="I85" s="40">
         <f>FORECAST($B$2,INDEX(AK66:AK75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AK66:AK75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.4249999999999989</v>
-      </c>
-      <c r="J85" s="42">
+        <v>1.7710999999999997</v>
+      </c>
+      <c r="J85" s="40">
         <f>FORECAST($B$2,INDEX(AP66:AP75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AP66:AP75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.104099999999999</v>
-      </c>
-      <c r="K85" s="42">
+        <v>2.1969999999999992</v>
+      </c>
+      <c r="K85" s="40">
         <f>FORECAST($B$2,INDEX(AU66:AU75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AU66:AU75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>3.8179999999999996</v>
-      </c>
-      <c r="L85" s="42">
+        <v>2.6259000000000006</v>
+      </c>
+      <c r="L85" s="40">
         <f>FORECAST($B$2,INDEX(AZ66:AZ75,MATCH($B$2,$B$37:$B$46,1)):INDEX(AZ66:AZ75,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>4.5705999999999989</v>
+        <v>3.0641999999999996</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -14640,55 +14641,55 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
-      <c r="AC109" s="37"/>
-      <c r="AD109" s="38"/>
-      <c r="AE109" s="37"/>
-      <c r="AF109" s="38"/>
-      <c r="AG109" s="37"/>
+      <c r="AC109" s="35"/>
+      <c r="AD109" s="36"/>
+      <c r="AE109" s="35"/>
+      <c r="AF109" s="36"/>
+      <c r="AG109" s="35"/>
     </row>
     <row r="110" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8">
         <v>5</v>
       </c>
-      <c r="C110" s="42">
+      <c r="C110" s="40">
         <f>FORECAST($B$2,INDEX(C95:C104,MATCH($B$2,$B$37:$B$46,1)):INDEX(C95:C104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>9.0799999999999992E-2</v>
-      </c>
-      <c r="D110" s="42">
+        <v>6.9200000000000012E-2</v>
+      </c>
+      <c r="D110" s="40">
         <f>FORECAST($B$2,INDEX(H95:H104,MATCH($B$2,$B$37:$B$46,1)):INDEX(H95:H104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.19000000000000006</v>
-      </c>
-      <c r="E110" s="42">
+        <v>0.14239999999999997</v>
+      </c>
+      <c r="E110" s="40">
         <f>FORECAST($B$2,INDEX(M95:M104,MATCH($B$2,$B$37:$B$46,1)):INDEX(M95:M104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.29899999999999993</v>
-      </c>
-      <c r="F110" s="42">
+        <v>0.21989999999999998</v>
+      </c>
+      <c r="F110" s="40">
         <f>FORECAST($B$2,INDEX(R95:R104,MATCH($B$2,$B$37:$B$46,1)):INDEX(R95:R104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.41979999999999995</v>
-      </c>
-      <c r="G110" s="42">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="G110" s="40">
         <f>FORECAST($B$2,INDEX(W95:W104,MATCH($B$2,$B$37:$B$46,1)):INDEX(W95:W104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.55489999999999973</v>
-      </c>
-      <c r="H110" s="42">
+        <v>0.38979999999999992</v>
+      </c>
+      <c r="H110" s="40">
         <f>FORECAST($B$2,INDEX(AB95:AB104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AB95:AB104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.7077</v>
-      </c>
-      <c r="I110" s="42">
+        <v>0.48339999999999983</v>
+      </c>
+      <c r="I110" s="40">
         <f>FORECAST($B$2,INDEX(AG95:AG104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AG95:AG104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.98130000000000006</v>
-      </c>
-      <c r="J110" s="42">
+        <v>0.63680000000000048</v>
+      </c>
+      <c r="J110" s="40">
         <f>FORECAST($B$2,INDEX(AL95:AL104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AL95:AL104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.6335999999999995</v>
-      </c>
-      <c r="K110" s="42">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="K110" s="40">
         <f>FORECAST($B$2,INDEX(AQ95:AQ104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AQ95:AQ104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.8953999999999986</v>
-      </c>
-      <c r="L110" s="42">
+        <v>1.3094999999999999</v>
+      </c>
+      <c r="L110" s="40">
         <f>FORECAST($B$2,INDEX(AV95:AV104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AV95:AV104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.7671000000000063</v>
+        <v>1.8005999999999993</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -14701,60 +14702,60 @@
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
-      <c r="X110" s="40"/>
-      <c r="Y110" s="41"/>
-      <c r="Z110" s="41"/>
-      <c r="AA110" s="41"/>
-      <c r="AB110" s="41"/>
-      <c r="AC110" s="41"/>
-      <c r="AD110" s="41"/>
-      <c r="AE110" s="41"/>
-      <c r="AF110" s="41"/>
-      <c r="AG110" s="41"/>
+      <c r="X110" s="38"/>
+      <c r="Y110" s="39"/>
+      <c r="Z110" s="39"/>
+      <c r="AA110" s="39"/>
+      <c r="AB110" s="39"/>
+      <c r="AC110" s="39"/>
+      <c r="AD110" s="39"/>
+      <c r="AE110" s="39"/>
+      <c r="AF110" s="39"/>
+      <c r="AG110" s="39"/>
     </row>
     <row r="111" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8">
         <v>7.5</v>
       </c>
-      <c r="C111" s="42">
+      <c r="C111" s="40">
         <f>FORECAST($B$2,INDEX(D95:D104,MATCH($B$2,$B$37:$B$46,1)):INDEX(D95:D104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>8.0199999999999966E-2</v>
-      </c>
-      <c r="D111" s="42">
+        <v>6.1299999999999993E-2</v>
+      </c>
+      <c r="D111" s="40">
         <f>FORECAST($B$2,INDEX(I95:I104,MATCH($B$2,$B$37:$B$46,1)):INDEX(I95:I104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.16660000000000003</v>
-      </c>
-      <c r="E111" s="42">
+        <v>0.12570000000000003</v>
+      </c>
+      <c r="E111" s="40">
         <f>FORECAST($B$2,INDEX(N95:N104,MATCH($B$2,$B$37:$B$46,1)):INDEX(N95:N104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.25990000000000002</v>
-      </c>
-      <c r="F111" s="42">
+        <v>0.19320000000000009</v>
+      </c>
+      <c r="F111" s="40">
         <f>FORECAST($B$2,INDEX(S95:S104,MATCH($B$2,$B$37:$B$46,1)):INDEX(S95:S104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.36140000000000017</v>
-      </c>
-      <c r="G111" s="42">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="G111" s="40">
         <f>FORECAST($B$2,INDEX(X95:X104,MATCH($B$2,$B$37:$B$46,1)):INDEX(X95:X104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.47229999999999994</v>
-      </c>
-      <c r="H111" s="42">
+        <v>0.33899999999999986</v>
+      </c>
+      <c r="H111" s="40">
         <f>FORECAST($B$2,INDEX(AC95:AC104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AC95:AC104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.59419999999999984</v>
-      </c>
-      <c r="I111" s="42">
+        <v>0.41789999999999994</v>
+      </c>
+      <c r="I111" s="40">
         <f>FORECAST($B$2,INDEX(AH95:AH104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AH95:AH104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.80260000000000042</v>
-      </c>
-      <c r="J111" s="42">
+        <v>0.54509999999999992</v>
+      </c>
+      <c r="J111" s="40">
         <f>FORECAST($B$2,INDEX(AM95:AM104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AM95:AM104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.2450999999999999</v>
-      </c>
-      <c r="K111" s="42">
+        <v>0.78469999999999951</v>
+      </c>
+      <c r="K111" s="40">
         <f>FORECAST($B$2,INDEX(AR95:AR104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AR95:AR104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.8878000000000004</v>
-      </c>
-      <c r="L111" s="42">
+        <v>1.0684000000000005</v>
+      </c>
+      <c r="L111" s="40">
         <f>FORECAST($B$2,INDEX(AW95:AW104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AW95:AW104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>2.9483000000000015</v>
+        <v>1.4116999999999997</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -14767,60 +14768,60 @@
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
-      <c r="X111" s="40"/>
-      <c r="Y111" s="41"/>
-      <c r="Z111" s="41"/>
-      <c r="AA111" s="41"/>
-      <c r="AB111" s="41"/>
-      <c r="AC111" s="41"/>
-      <c r="AD111" s="41"/>
-      <c r="AE111" s="41"/>
-      <c r="AF111" s="41"/>
-      <c r="AG111" s="41"/>
+      <c r="X111" s="38"/>
+      <c r="Y111" s="39"/>
+      <c r="Z111" s="39"/>
+      <c r="AA111" s="39"/>
+      <c r="AB111" s="39"/>
+      <c r="AC111" s="39"/>
+      <c r="AD111" s="39"/>
+      <c r="AE111" s="39"/>
+      <c r="AF111" s="39"/>
+      <c r="AG111" s="39"/>
     </row>
     <row r="112" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8">
         <v>10</v>
       </c>
-      <c r="C112" s="42">
+      <c r="C112" s="40">
         <f>FORECAST($B$2,INDEX(E95:E104,MATCH($B$2,$B$37:$B$46,1)):INDEX(E95:E104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>7.0900000000000019E-2</v>
-      </c>
-      <c r="D112" s="42">
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="D112" s="40">
         <f>FORECAST($B$2,INDEX(J95:J104,MATCH($B$2,$B$37:$B$46,1)):INDEX(J95:J104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.14639999999999997</v>
-      </c>
-      <c r="E112" s="42">
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="E112" s="40">
         <f>FORECAST($B$2,INDEX(O95:O104,MATCH($B$2,$B$37:$B$46,1)):INDEX(O95:O104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.22700000000000009</v>
-      </c>
-      <c r="F112" s="42">
+        <v>0.17010000000000003</v>
+      </c>
+      <c r="F112" s="40">
         <f>FORECAST($B$2,INDEX(T95:T104,MATCH($B$2,$B$37:$B$46,1)):INDEX(T95:T104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.31330000000000002</v>
-      </c>
-      <c r="G112" s="42">
+        <v>0.23170000000000002</v>
+      </c>
+      <c r="G112" s="40">
         <f>FORECAST($B$2,INDEX(Y95:Y104,MATCH($B$2,$B$37:$B$46,1)):INDEX(Y95:Y104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.40600000000000014</v>
-      </c>
-      <c r="H112" s="42">
+        <v>0.29610000000000014</v>
+      </c>
+      <c r="H112" s="40">
         <f>FORECAST($B$2,INDEX(AD95:AD104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AD95:AD104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.50590000000000002</v>
-      </c>
-      <c r="I112" s="42">
+        <v>0.36339999999999983</v>
+      </c>
+      <c r="I112" s="40">
         <f>FORECAST($B$2,INDEX(AI95:AI104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AI95:AI104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.67169999999999996</v>
-      </c>
-      <c r="J112" s="42">
+        <v>0.47060000000000013</v>
+      </c>
+      <c r="J112" s="40">
         <f>FORECAST($B$2,INDEX(AN95:AN104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AN95:AN104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.0019</v>
-      </c>
-      <c r="K112" s="42">
+        <v>0.66779999999999973</v>
+      </c>
+      <c r="K112" s="40">
         <f>FORECAST($B$2,INDEX(AS95:AS104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AS95:AS104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.4270999999999994</v>
-      </c>
-      <c r="L112" s="42">
+        <v>0.89299999999999979</v>
+      </c>
+      <c r="L112" s="40">
         <f>FORECAST($B$2,INDEX(AX95:AX104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AX95:AX104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.9993999999999996</v>
+        <v>1.1533000000000002</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -14833,60 +14834,60 @@
       <c r="U112" s="5"/>
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
-      <c r="X112" s="40"/>
-      <c r="Y112" s="41"/>
-      <c r="Z112" s="41"/>
-      <c r="AA112" s="41"/>
-      <c r="AB112" s="41"/>
-      <c r="AC112" s="41"/>
-      <c r="AD112" s="41"/>
-      <c r="AE112" s="41"/>
-      <c r="AF112" s="41"/>
-      <c r="AG112" s="41"/>
+      <c r="X112" s="38"/>
+      <c r="Y112" s="39"/>
+      <c r="Z112" s="39"/>
+      <c r="AA112" s="39"/>
+      <c r="AB112" s="39"/>
+      <c r="AC112" s="39"/>
+      <c r="AD112" s="39"/>
+      <c r="AE112" s="39"/>
+      <c r="AF112" s="39"/>
+      <c r="AG112" s="39"/>
     </row>
     <row r="113" spans="2:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8">
         <v>12.5</v>
       </c>
-      <c r="C113" s="42">
+      <c r="C113" s="40">
         <f>FORECAST($B$2,INDEX(F95:F104,MATCH($B$2,$B$37:$B$46,1)):INDEX(F95:F104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="D113" s="42">
+        <v>4.8200000000000007E-2</v>
+      </c>
+      <c r="D113" s="40">
         <f>FORECAST($B$2,INDEX(K95:K104,MATCH($B$2,$B$37:$B$46,1)):INDEX(K95:K104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.12900000000000006</v>
-      </c>
-      <c r="E113" s="42">
+        <v>9.8199999999999982E-2</v>
+      </c>
+      <c r="E113" s="40">
         <f>FORECAST($B$2,INDEX(P95:P104,MATCH($B$2,$B$37:$B$46,1)):INDEX(P95:P104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.19899999999999995</v>
-      </c>
-      <c r="F113" s="42">
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="F113" s="40">
         <f>FORECAST($B$2,INDEX(U95:U104,MATCH($B$2,$B$37:$B$46,1)):INDEX(U95:U104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="G113" s="42">
+        <v>0.20370000000000005</v>
+      </c>
+      <c r="G113" s="40">
         <f>FORECAST($B$2,INDEX(Z95:Z104,MATCH($B$2,$B$37:$B$46,1)):INDEX(Z95:Z104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.35149999999999981</v>
-      </c>
-      <c r="H113" s="42">
+        <v>0.25950000000000006</v>
+      </c>
+      <c r="H113" s="40">
         <f>FORECAST($B$2,INDEX(AE95:AE104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AE95:AE104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.43500000000000005</v>
-      </c>
-      <c r="I113" s="42">
+        <v>0.3173999999999999</v>
+      </c>
+      <c r="I113" s="40">
         <f>FORECAST($B$2,INDEX(AJ95:AJ104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AJ95:AJ104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.57070000000000021</v>
-      </c>
-      <c r="J113" s="42">
+        <v>0.40880000000000005</v>
+      </c>
+      <c r="J113" s="40">
         <f>FORECAST($B$2,INDEX(AO95:AO104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AO95:AO104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.83020000000000005</v>
-      </c>
-      <c r="K113" s="42">
+        <v>0.57410000000000005</v>
+      </c>
+      <c r="K113" s="40">
         <f>FORECAST($B$2,INDEX(AT95:AT104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AT95:AT104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.1428999999999996</v>
-      </c>
-      <c r="L113" s="42">
+        <v>0.75819999999999954</v>
+      </c>
+      <c r="L113" s="40">
         <f>FORECAST($B$2,INDEX(AY95:AY104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AY95:AY104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.527099999999999</v>
+        <v>0.96470000000000011</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -14899,60 +14900,60 @@
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
-      <c r="X113" s="40"/>
-      <c r="Y113" s="41"/>
-      <c r="Z113" s="41"/>
-      <c r="AA113" s="41"/>
-      <c r="AB113" s="41"/>
-      <c r="AC113" s="41"/>
-      <c r="AD113" s="41"/>
-      <c r="AE113" s="41"/>
-      <c r="AF113" s="41"/>
-      <c r="AG113" s="41"/>
+      <c r="X113" s="38"/>
+      <c r="Y113" s="39"/>
+      <c r="Z113" s="39"/>
+      <c r="AA113" s="39"/>
+      <c r="AB113" s="39"/>
+      <c r="AC113" s="39"/>
+      <c r="AD113" s="39"/>
+      <c r="AE113" s="39"/>
+      <c r="AF113" s="39"/>
+      <c r="AG113" s="39"/>
     </row>
     <row r="114" spans="2:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8">
         <v>15</v>
       </c>
-      <c r="C114" s="42">
+      <c r="C114" s="40">
         <f>FORECAST($B$2,INDEX(G95:G104,MATCH($B$2,$B$37:$B$46,1)):INDEX(G95:G104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>5.5599999999999983E-2</v>
-      </c>
-      <c r="D114" s="42">
+        <v>4.2800000000000019E-2</v>
+      </c>
+      <c r="D114" s="40">
         <f>FORECAST($B$2,INDEX(L95:L104,MATCH($B$2,$B$37:$B$46,1)):INDEX(L95:L104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.11389999999999997</v>
-      </c>
-      <c r="E114" s="42">
+        <v>8.6899999999999977E-2</v>
+      </c>
+      <c r="E114" s="40">
         <f>FORECAST($B$2,INDEX(Q95:Q104,MATCH($B$2,$B$37:$B$46,1)):INDEX(Q95:Q104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.17490000000000006</v>
-      </c>
-      <c r="F114" s="42">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="F114" s="40">
         <f>FORECAST($B$2,INDEX(V95:V104,MATCH($B$2,$B$37:$B$46,1)):INDEX(V95:V104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.23880000000000001</v>
-      </c>
-      <c r="G114" s="42">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="G114" s="40">
         <f>FORECAST($B$2,INDEX(AA95:AA104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AA95:AA104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.30609999999999993</v>
-      </c>
-      <c r="H114" s="42">
+        <v>0.22809999999999997</v>
+      </c>
+      <c r="H114" s="40">
         <f>FORECAST($B$2,INDEX(AF95:AF104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AF95:AF104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.37680000000000002</v>
-      </c>
-      <c r="I114" s="42">
+        <v>0.27829999999999999</v>
+      </c>
+      <c r="I114" s="40">
         <f>FORECAST($B$2,INDEX(AK95:AK104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AK95:AK104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.49</v>
-      </c>
-      <c r="J114" s="42">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="J114" s="40">
         <f>FORECAST($B$2,INDEX(AP95:AP104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AP95:AP104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.70060000000000011</v>
-      </c>
-      <c r="K114" s="42">
+        <v>0.4971000000000001</v>
+      </c>
+      <c r="K114" s="40">
         <f>FORECAST($B$2,INDEX(AU95:AU104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AU95:AU104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>0.94410000000000061</v>
-      </c>
-      <c r="L114" s="42">
+        <v>0.65060000000000007</v>
+      </c>
+      <c r="L114" s="40">
         <f>FORECAST($B$2,INDEX(AZ95:AZ104,MATCH($B$2,$B$37:$B$46,1)):INDEX(AZ95:AZ104,MATCH($B$2,$B$37:$B$46,1)+1),INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)):INDEX($B$37:$B$46,MATCH($B$2,$B$37:$B$46,1)+1))</f>
-        <v>1.2282000000000002</v>
+        <v>0.81930000000000014</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -14965,16 +14966,16 @@
       <c r="U114" s="5"/>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
-      <c r="X114" s="40"/>
-      <c r="Y114" s="41"/>
-      <c r="Z114" s="41"/>
-      <c r="AA114" s="41"/>
-      <c r="AB114" s="41"/>
-      <c r="AC114" s="41"/>
-      <c r="AD114" s="41"/>
-      <c r="AE114" s="41"/>
-      <c r="AF114" s="41"/>
-      <c r="AG114" s="41"/>
+      <c r="X114" s="38"/>
+      <c r="Y114" s="39"/>
+      <c r="Z114" s="39"/>
+      <c r="AA114" s="39"/>
+      <c r="AB114" s="39"/>
+      <c r="AC114" s="39"/>
+      <c r="AD114" s="39"/>
+      <c r="AE114" s="39"/>
+      <c r="AF114" s="39"/>
+      <c r="AG114" s="39"/>
     </row>
     <row r="115" spans="2:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
@@ -15209,76 +15210,76 @@
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
-      <c r="AC123" s="37"/>
-      <c r="AD123" s="38"/>
-      <c r="AE123" s="37"/>
-      <c r="AF123" s="38"/>
-      <c r="AG123" s="37"/>
+      <c r="AC123" s="35"/>
+      <c r="AD123" s="36"/>
+      <c r="AE123" s="35"/>
+      <c r="AF123" s="36"/>
+      <c r="AG123" s="35"/>
     </row>
     <row r="124" spans="2:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W124" s="5"/>
-      <c r="X124" s="41"/>
-      <c r="Y124" s="41"/>
-      <c r="Z124" s="41"/>
-      <c r="AA124" s="41"/>
-      <c r="AB124" s="41"/>
-      <c r="AC124" s="41"/>
-      <c r="AD124" s="41"/>
-      <c r="AE124" s="41"/>
-      <c r="AF124" s="41"/>
-      <c r="AG124" s="41"/>
+      <c r="X124" s="39"/>
+      <c r="Y124" s="39"/>
+      <c r="Z124" s="39"/>
+      <c r="AA124" s="39"/>
+      <c r="AB124" s="39"/>
+      <c r="AC124" s="39"/>
+      <c r="AD124" s="39"/>
+      <c r="AE124" s="39"/>
+      <c r="AF124" s="39"/>
+      <c r="AG124" s="39"/>
     </row>
     <row r="125" spans="2:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W125" s="5"/>
-      <c r="X125" s="41"/>
-      <c r="Y125" s="41"/>
-      <c r="Z125" s="41"/>
-      <c r="AA125" s="41"/>
-      <c r="AB125" s="41"/>
-      <c r="AC125" s="41"/>
-      <c r="AD125" s="41"/>
-      <c r="AE125" s="41"/>
-      <c r="AF125" s="41"/>
-      <c r="AG125" s="41"/>
+      <c r="X125" s="39"/>
+      <c r="Y125" s="39"/>
+      <c r="Z125" s="39"/>
+      <c r="AA125" s="39"/>
+      <c r="AB125" s="39"/>
+      <c r="AC125" s="39"/>
+      <c r="AD125" s="39"/>
+      <c r="AE125" s="39"/>
+      <c r="AF125" s="39"/>
+      <c r="AG125" s="39"/>
     </row>
     <row r="126" spans="2:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W126" s="5"/>
-      <c r="X126" s="41"/>
-      <c r="Y126" s="41"/>
-      <c r="Z126" s="41"/>
-      <c r="AA126" s="41"/>
-      <c r="AB126" s="41"/>
-      <c r="AC126" s="41"/>
-      <c r="AD126" s="41"/>
-      <c r="AE126" s="41"/>
-      <c r="AF126" s="41"/>
-      <c r="AG126" s="41"/>
+      <c r="X126" s="39"/>
+      <c r="Y126" s="39"/>
+      <c r="Z126" s="39"/>
+      <c r="AA126" s="39"/>
+      <c r="AB126" s="39"/>
+      <c r="AC126" s="39"/>
+      <c r="AD126" s="39"/>
+      <c r="AE126" s="39"/>
+      <c r="AF126" s="39"/>
+      <c r="AG126" s="39"/>
     </row>
     <row r="127" spans="2:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W127" s="5"/>
-      <c r="X127" s="41"/>
-      <c r="Y127" s="41"/>
-      <c r="Z127" s="41"/>
-      <c r="AA127" s="41"/>
-      <c r="AB127" s="41"/>
-      <c r="AC127" s="41"/>
-      <c r="AD127" s="41"/>
-      <c r="AE127" s="41"/>
-      <c r="AF127" s="41"/>
-      <c r="AG127" s="41"/>
+      <c r="X127" s="39"/>
+      <c r="Y127" s="39"/>
+      <c r="Z127" s="39"/>
+      <c r="AA127" s="39"/>
+      <c r="AB127" s="39"/>
+      <c r="AC127" s="39"/>
+      <c r="AD127" s="39"/>
+      <c r="AE127" s="39"/>
+      <c r="AF127" s="39"/>
+      <c r="AG127" s="39"/>
     </row>
     <row r="128" spans="2:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W128" s="5"/>
-      <c r="X128" s="41"/>
-      <c r="Y128" s="41"/>
-      <c r="Z128" s="41"/>
-      <c r="AA128" s="41"/>
-      <c r="AB128" s="41"/>
-      <c r="AC128" s="41"/>
-      <c r="AD128" s="41"/>
-      <c r="AE128" s="41"/>
-      <c r="AF128" s="41"/>
-      <c r="AG128" s="41"/>
+      <c r="X128" s="39"/>
+      <c r="Y128" s="39"/>
+      <c r="Z128" s="39"/>
+      <c r="AA128" s="39"/>
+      <c r="AB128" s="39"/>
+      <c r="AC128" s="39"/>
+      <c r="AD128" s="39"/>
+      <c r="AE128" s="39"/>
+      <c r="AF128" s="39"/>
+      <c r="AG128" s="39"/>
     </row>
     <row r="129" spans="23:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W129" s="5"/>
@@ -15313,76 +15314,76 @@
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
-      <c r="AC131" s="37"/>
-      <c r="AD131" s="38"/>
-      <c r="AE131" s="37"/>
-      <c r="AF131" s="38"/>
-      <c r="AG131" s="37"/>
+      <c r="AC131" s="35"/>
+      <c r="AD131" s="36"/>
+      <c r="AE131" s="35"/>
+      <c r="AF131" s="36"/>
+      <c r="AG131" s="35"/>
     </row>
     <row r="132" spans="23:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W132" s="5"/>
-      <c r="X132" s="41"/>
-      <c r="Y132" s="41"/>
-      <c r="Z132" s="41"/>
-      <c r="AA132" s="41"/>
-      <c r="AB132" s="41"/>
-      <c r="AC132" s="41"/>
-      <c r="AD132" s="41"/>
-      <c r="AE132" s="41"/>
-      <c r="AF132" s="41"/>
-      <c r="AG132" s="41"/>
+      <c r="X132" s="39"/>
+      <c r="Y132" s="39"/>
+      <c r="Z132" s="39"/>
+      <c r="AA132" s="39"/>
+      <c r="AB132" s="39"/>
+      <c r="AC132" s="39"/>
+      <c r="AD132" s="39"/>
+      <c r="AE132" s="39"/>
+      <c r="AF132" s="39"/>
+      <c r="AG132" s="39"/>
     </row>
     <row r="133" spans="23:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W133" s="5"/>
-      <c r="X133" s="41"/>
-      <c r="Y133" s="41"/>
-      <c r="Z133" s="41"/>
-      <c r="AA133" s="41"/>
-      <c r="AB133" s="41"/>
-      <c r="AC133" s="41"/>
-      <c r="AD133" s="41"/>
-      <c r="AE133" s="41"/>
-      <c r="AF133" s="41"/>
-      <c r="AG133" s="41"/>
+      <c r="X133" s="39"/>
+      <c r="Y133" s="39"/>
+      <c r="Z133" s="39"/>
+      <c r="AA133" s="39"/>
+      <c r="AB133" s="39"/>
+      <c r="AC133" s="39"/>
+      <c r="AD133" s="39"/>
+      <c r="AE133" s="39"/>
+      <c r="AF133" s="39"/>
+      <c r="AG133" s="39"/>
     </row>
     <row r="134" spans="23:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W134" s="5"/>
-      <c r="X134" s="41"/>
-      <c r="Y134" s="41"/>
-      <c r="Z134" s="41"/>
-      <c r="AA134" s="41"/>
-      <c r="AB134" s="41"/>
-      <c r="AC134" s="41"/>
-      <c r="AD134" s="41"/>
-      <c r="AE134" s="41"/>
-      <c r="AF134" s="41"/>
-      <c r="AG134" s="41"/>
+      <c r="X134" s="39"/>
+      <c r="Y134" s="39"/>
+      <c r="Z134" s="39"/>
+      <c r="AA134" s="39"/>
+      <c r="AB134" s="39"/>
+      <c r="AC134" s="39"/>
+      <c r="AD134" s="39"/>
+      <c r="AE134" s="39"/>
+      <c r="AF134" s="39"/>
+      <c r="AG134" s="39"/>
     </row>
     <row r="135" spans="23:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W135" s="5"/>
-      <c r="X135" s="41"/>
-      <c r="Y135" s="41"/>
-      <c r="Z135" s="41"/>
-      <c r="AA135" s="41"/>
-      <c r="AB135" s="41"/>
-      <c r="AC135" s="41"/>
-      <c r="AD135" s="41"/>
-      <c r="AE135" s="41"/>
-      <c r="AF135" s="41"/>
-      <c r="AG135" s="41"/>
+      <c r="X135" s="39"/>
+      <c r="Y135" s="39"/>
+      <c r="Z135" s="39"/>
+      <c r="AA135" s="39"/>
+      <c r="AB135" s="39"/>
+      <c r="AC135" s="39"/>
+      <c r="AD135" s="39"/>
+      <c r="AE135" s="39"/>
+      <c r="AF135" s="39"/>
+      <c r="AG135" s="39"/>
     </row>
     <row r="136" spans="23:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W136" s="5"/>
-      <c r="X136" s="41"/>
-      <c r="Y136" s="41"/>
-      <c r="Z136" s="41"/>
-      <c r="AA136" s="41"/>
-      <c r="AB136" s="41"/>
-      <c r="AC136" s="41"/>
-      <c r="AD136" s="41"/>
-      <c r="AE136" s="41"/>
-      <c r="AF136" s="41"/>
-      <c r="AG136" s="41"/>
+      <c r="X136" s="39"/>
+      <c r="Y136" s="39"/>
+      <c r="Z136" s="39"/>
+      <c r="AA136" s="39"/>
+      <c r="AB136" s="39"/>
+      <c r="AC136" s="39"/>
+      <c r="AD136" s="39"/>
+      <c r="AE136" s="39"/>
+      <c r="AF136" s="39"/>
+      <c r="AG136" s="39"/>
     </row>
     <row r="137" spans="23:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="W137" s="5"/>
@@ -15515,7 +15516,7 @@
       <c r="AG146" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C4hmay40ZhV0pO/A2wcBbTVwQ/mJd5T/3suiWbjpy8ng0pVODlZgWiA9XMR8yOeqQufeE1Gq5wV0InGppfb0ug==" saltValue="Tx/8S9oD0l3ubdN1VR/1aA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wiPzojXiTag8j9TP2Ih2MrUMPp7H3l6s/69XCGZr1Vj14lbHCWPYyPZleczwq2bzf1K7X+UmyZ3VxybLqO6PBA==" saltValue="XZ473paKo1TjpdNRHEeklQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A12:D12"/>
   </mergeCells>
@@ -15535,7 +15536,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="45" yWindow="311" count="3">
+  <dataValidations xWindow="45" yWindow="311" count="4">
     <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" error="HbA1c between 6 and 14.9%" prompt="HbA1c between 6 and 15%" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>6</formula1>
       <formula2>14.9</formula2>
@@ -15548,6 +15549,10 @@
       <formula1>1</formula1>
       <formula2>14.9</formula2>
     </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{AD9ABB1A-C2E9-4039-9908-D96A2346238B}">
+      <formula1>44197</formula1>
+      <formula2>49674</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
